--- a/data/outputs/OR_elsevier/37.xlsx
+++ b/data/outputs/OR_elsevier/37.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS138"/>
+  <dimension ref="A1:BU138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -722,6 +722,16 @@
           <t>eid</t>
         </is>
       </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>views</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>citations</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -956,6 +966,12 @@
         <is>
           <t>2-s2.0-84940008519</t>
         </is>
+      </c>
+      <c r="BT2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>228</v>
       </c>
     </row>
     <row r="3">
@@ -1170,6 +1186,12 @@
           <t>2-s2.0-84921698979</t>
         </is>
       </c>
+      <c r="BT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>201</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1404,6 +1426,12 @@
         <is>
           <t>2-s2.0-84940000500</t>
         </is>
+      </c>
+      <c r="BT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="5">
@@ -1624,6 +1652,12 @@
           <t>2-s2.0-84937977284</t>
         </is>
       </c>
+      <c r="BT5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1841,6 +1875,12 @@
           <t>2-s2.0-84921701000</t>
         </is>
       </c>
+      <c r="BT6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2056,6 +2096,12 @@
           <t>2-s2.0-84937971822</t>
         </is>
       </c>
+      <c r="BT7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2275,6 +2321,12 @@
           <t>2-s2.0-84937951735</t>
         </is>
       </c>
+      <c r="BT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2499,6 +2551,12 @@
         <is>
           <t>2-s2.0-84921699304</t>
         </is>
+      </c>
+      <c r="BT9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="10">
@@ -2719,6 +2777,12 @@
           <t>2-s2.0-84937970400</t>
         </is>
       </c>
+      <c r="BT10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2942,6 +3006,12 @@
           <t>2-s2.0-84937974079</t>
         </is>
       </c>
+      <c r="BT11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3161,6 +3231,12 @@
           <t>2-s2.0-84941945041</t>
         </is>
       </c>
+      <c r="BT12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3387,6 +3463,12 @@
         <is>
           <t>2-s2.0-84941992975</t>
         </is>
+      </c>
+      <c r="BT13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="14">
@@ -3615,6 +3697,12 @@
           <t>2-s2.0-84941992711</t>
         </is>
       </c>
+      <c r="BT14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3845,6 +3933,12 @@
         <is>
           <t>2-s2.0-84940005289</t>
         </is>
+      </c>
+      <c r="BT15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="16">
@@ -4073,6 +4167,12 @@
           <t>2-s2.0-84925292323</t>
         </is>
       </c>
+      <c r="BT16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4290,6 +4390,12 @@
           <t>2-s2.0-84890945640</t>
         </is>
       </c>
+      <c r="BT17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4508,6 +4614,12 @@
         <is>
           <t>2-s2.0-84937967811</t>
         </is>
+      </c>
+      <c r="BT18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="19">
@@ -4722,6 +4834,12 @@
           <t>2-s2.0-84921700027</t>
         </is>
       </c>
+      <c r="BT19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4941,6 +5059,12 @@
           <t>2-s2.0-84941946405</t>
         </is>
       </c>
+      <c r="BT20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5159,6 +5283,12 @@
         <is>
           <t>2-s2.0-84941996511</t>
         </is>
+      </c>
+      <c r="BT21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="22">
@@ -5379,6 +5509,12 @@
           <t>2-s2.0-84937974436</t>
         </is>
       </c>
+      <c r="BT22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5596,6 +5732,12 @@
           <t>2-s2.0-84925290954</t>
         </is>
       </c>
+      <c r="BT23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU23" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5815,6 +5957,12 @@
           <t>2-s2.0-84937969694</t>
         </is>
       </c>
+      <c r="BT24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU24" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6034,6 +6182,12 @@
           <t>2-s2.0-84930227255</t>
         </is>
       </c>
+      <c r="BT25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU25" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6254,6 +6408,12 @@
         <is>
           <t>2-s2.0-84925289688</t>
         </is>
+      </c>
+      <c r="BT26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU26" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="27">
@@ -6464,6 +6624,12 @@
           <t>2-s2.0-84921701217</t>
         </is>
       </c>
+      <c r="BT27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU27" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6691,6 +6857,12 @@
           <t>2-s2.0-84937932002</t>
         </is>
       </c>
+      <c r="BT28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU28" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6912,6 +7084,12 @@
           <t>2-s2.0-84921700693</t>
         </is>
       </c>
+      <c r="BT29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU29" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -7135,6 +7313,12 @@
           <t>2-s2.0-84941978819</t>
         </is>
       </c>
+      <c r="BT30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU30" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7352,6 +7536,12 @@
           <t>2-s2.0-84946434177</t>
         </is>
       </c>
+      <c r="BT31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU31" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7590,6 +7780,12 @@
         <is>
           <t>2-s2.0-84939932953</t>
         </is>
+      </c>
+      <c r="BT32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU32" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="33">
@@ -7814,6 +8010,12 @@
           <t>2-s2.0-84941985252</t>
         </is>
       </c>
+      <c r="BT33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU33" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -8037,6 +8239,12 @@
           <t>2-s2.0-84930202608</t>
         </is>
       </c>
+      <c r="BT34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU34" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -8268,6 +8476,12 @@
           <t>2-s2.0-84937761180</t>
         </is>
       </c>
+      <c r="BT35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU35" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8510,6 +8724,12 @@
         <is>
           <t>2-s2.0-84937761098</t>
         </is>
+      </c>
+      <c r="BT36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU36" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="37">
@@ -8734,6 +8954,12 @@
           <t>2-s2.0-84941995753</t>
         </is>
       </c>
+      <c r="BT37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU37" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8954,6 +9180,12 @@
         <is>
           <t>2-s2.0-84925290283</t>
         </is>
+      </c>
+      <c r="BT38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU38" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="39">
@@ -9164,6 +9396,12 @@
           <t>2-s2.0-84925290048</t>
         </is>
       </c>
+      <c r="BT39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU39" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -9380,6 +9618,12 @@
         <is>
           <t>2-s2.0-84925289627</t>
         </is>
+      </c>
+      <c r="BT40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU40" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="41">
@@ -9600,6 +9844,12 @@
           <t>2-s2.0-84941994640</t>
         </is>
       </c>
+      <c r="BT41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU41" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9815,6 +10065,12 @@
           <t>2-s2.0-84930221808</t>
         </is>
       </c>
+      <c r="BT42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU42" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -10028,6 +10284,12 @@
           <t>2-s2.0-84925289610</t>
         </is>
       </c>
+      <c r="BT43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU43" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -10247,6 +10509,12 @@
           <t>2-s2.0-84941957900</t>
         </is>
       </c>
+      <c r="BT44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU44" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -10465,6 +10733,12 @@
         <is>
           <t>2-s2.0-84941992027</t>
         </is>
+      </c>
+      <c r="BT45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU45" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="46">
@@ -10693,6 +10967,12 @@
           <t>2-s2.0-84941996057</t>
         </is>
       </c>
+      <c r="BT46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU46" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10915,6 +11195,12 @@
         <is>
           <t>2-s2.0-84930197819</t>
         </is>
+      </c>
+      <c r="BT47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU47" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="48">
@@ -11139,6 +11425,12 @@
           <t>2-s2.0-84939947602</t>
         </is>
       </c>
+      <c r="BT48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU48" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -11380,6 +11672,12 @@
           <t>2-s2.0-84924871453</t>
         </is>
       </c>
+      <c r="BT49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU49" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -11596,6 +11894,12 @@
         <is>
           <t>2-s2.0-84946489452</t>
         </is>
+      </c>
+      <c r="BT50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU50" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="51">
@@ -11807,6 +12111,12 @@
         <is>
           <t>2-s2.0-84941964693</t>
         </is>
+      </c>
+      <c r="BT51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU51" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="52">
@@ -12023,6 +12333,12 @@
           <t>2-s2.0-84930216441</t>
         </is>
       </c>
+      <c r="BT52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU52" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -12262,6 +12578,12 @@
           <t>2-s2.0-84937762700</t>
         </is>
       </c>
+      <c r="BT53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU53" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -12493,6 +12815,12 @@
           <t>2-s2.0-84937760199</t>
         </is>
       </c>
+      <c r="BT54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU54" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -12731,6 +13059,12 @@
         <is>
           <t>2-s2.0-84937760917</t>
         </is>
+      </c>
+      <c r="BT55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU55" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="56">
@@ -12961,6 +13295,12 @@
           <t>2-s2.0-84925292224</t>
         </is>
       </c>
+      <c r="BT56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU56" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -13202,6 +13542,12 @@
           <t>2-s2.0-84925290997</t>
         </is>
       </c>
+      <c r="BT57" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU57" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -13419,6 +13765,12 @@
           <t>2-s2.0-84921699024</t>
         </is>
       </c>
+      <c r="BT58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU58" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -13645,6 +13997,12 @@
         <is>
           <t>2-s2.0-84921699537</t>
         </is>
+      </c>
+      <c r="BT59" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU59" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="60">
@@ -13855,6 +14213,12 @@
           <t>2-s2.0-84946430626</t>
         </is>
       </c>
+      <c r="BT60" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU60" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -14082,6 +14446,12 @@
           <t>2-s2.0-84941997801</t>
         </is>
       </c>
+      <c r="BT61" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU61" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -14317,6 +14687,12 @@
           <t>2-s2.0-84939980254</t>
         </is>
       </c>
+      <c r="BT62" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU62" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -14547,6 +14923,12 @@
         <is>
           <t>2-s2.0-84940000523</t>
         </is>
+      </c>
+      <c r="BT63" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU63" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="64">
@@ -14766,6 +15148,12 @@
         <is>
           <t>2-s2.0-84941997011</t>
         </is>
+      </c>
+      <c r="BT64" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU64" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="65">
@@ -14978,6 +15366,12 @@
           <t>2-s2.0-84941949256</t>
         </is>
       </c>
+      <c r="BT65" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU65" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -15201,6 +15595,12 @@
           <t>2-s2.0-84941961876</t>
         </is>
       </c>
+      <c r="BT66" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU66" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -15424,6 +15824,12 @@
           <t>2-s2.0-84941959886</t>
         </is>
       </c>
+      <c r="BT67" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU67" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -15647,6 +16053,12 @@
           <t>2-s2.0-84937971196</t>
         </is>
       </c>
+      <c r="BT68" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU68" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -15871,6 +16283,12 @@
         <is>
           <t>2-s2.0-84946493583</t>
         </is>
+      </c>
+      <c r="BT69" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU69" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="70">
@@ -16085,6 +16503,12 @@
           <t>2-s2.0-84946406446</t>
         </is>
       </c>
+      <c r="BT70" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU70" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -16307,6 +16731,12 @@
         <is>
           <t>2-s2.0-84941951117</t>
         </is>
+      </c>
+      <c r="BT71" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU71" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="72">
@@ -16535,6 +16965,12 @@
           <t>2-s2.0-84941997774</t>
         </is>
       </c>
+      <c r="BT72" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU72" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -16758,6 +17194,12 @@
           <t>2-s2.0-84941993286</t>
         </is>
       </c>
+      <c r="BT73" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU73" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -16981,6 +17423,12 @@
           <t>2-s2.0-84937969262</t>
         </is>
       </c>
+      <c r="BT74" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU74" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -17199,6 +17647,12 @@
         <is>
           <t>2-s2.0-84929957426</t>
         </is>
+      </c>
+      <c r="BT75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU75" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="76">
@@ -17415,6 +17869,12 @@
           <t>2-s2.0-84930226802</t>
         </is>
       </c>
+      <c r="BT76" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU76" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -17636,6 +18096,12 @@
           <t>2-s2.0-84925290001</t>
         </is>
       </c>
+      <c r="BT77" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU77" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -17856,6 +18322,12 @@
         <is>
           <t>2-s2.0-84946496655</t>
         </is>
+      </c>
+      <c r="BT78" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU78" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="79">
@@ -18088,6 +18560,12 @@
           <t>2-s2.0-84946500697</t>
         </is>
       </c>
+      <c r="BT79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU79" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -18309,6 +18787,12 @@
           <t>2-s2.0-84946490800</t>
         </is>
       </c>
+      <c r="BT80" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU80" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -18535,6 +19019,12 @@
         <is>
           <t>2-s2.0-84941995748</t>
         </is>
+      </c>
+      <c r="BT81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU81" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="82">
@@ -18763,6 +19253,12 @@
           <t>2-s2.0-84941996303</t>
         </is>
       </c>
+      <c r="BT82" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU82" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -18990,6 +19486,12 @@
           <t>2-s2.0-84941995881</t>
         </is>
       </c>
+      <c r="BT83" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU83" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -19212,6 +19714,12 @@
         <is>
           <t>2-s2.0-84937978547</t>
         </is>
+      </c>
+      <c r="BT84" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU84" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="85">
@@ -19432,6 +19940,12 @@
           <t>2-s2.0-84937968651</t>
         </is>
       </c>
+      <c r="BT85" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU85" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -19649,6 +20163,12 @@
           <t>2-s2.0-84925291044</t>
         </is>
       </c>
+      <c r="BT86" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU86" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -19882,6 +20402,12 @@
           <t>2-s2.0-84925292273</t>
         </is>
       </c>
+      <c r="BT87" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU87" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -20101,6 +20627,12 @@
           <t>2-s2.0-84921699043</t>
         </is>
       </c>
+      <c r="BT88" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU88" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -20321,6 +20853,12 @@
         <is>
           <t>2-s2.0-84946400386</t>
         </is>
+      </c>
+      <c r="BT89" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU89" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="90">
@@ -20543,6 +21081,12 @@
           <t>2-s2.0-84946498572</t>
         </is>
       </c>
+      <c r="BT90" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU90" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -20760,6 +21304,12 @@
           <t>2-s2.0-84946407619</t>
         </is>
       </c>
+      <c r="BT91" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU91" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -20981,6 +21531,12 @@
           <t>2-s2.0-84946416193</t>
         </is>
       </c>
+      <c r="BT92" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU92" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -21207,6 +21763,12 @@
         <is>
           <t>2-s2.0-84937974153</t>
         </is>
+      </c>
+      <c r="BT93" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU93" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="94">
@@ -21419,6 +21981,12 @@
           <t>2-s2.0-84937978560</t>
         </is>
       </c>
+      <c r="BT94" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU94" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -21638,6 +22206,12 @@
           <t>2-s2.0-84937974615</t>
         </is>
       </c>
+      <c r="BT95" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU95" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -21856,6 +22430,12 @@
         <is>
           <t>2-s2.0-84937979178</t>
         </is>
+      </c>
+      <c r="BT96" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU96" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="97">
@@ -22088,6 +22668,12 @@
           <t>2-s2.0-84925290276</t>
         </is>
       </c>
+      <c r="BT97" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU97" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -22297,6 +22883,12 @@
           <t>2-s2.0-84921701053</t>
         </is>
       </c>
+      <c r="BT98" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU98" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -22517,6 +23109,12 @@
         <is>
           <t>2-s2.0-84921700531</t>
         </is>
+      </c>
+      <c r="BT99" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU99" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="100">
@@ -22727,6 +23325,12 @@
           <t>2-s2.0-84921699191</t>
         </is>
       </c>
+      <c r="BT100" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU100" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -22951,6 +23555,12 @@
         <is>
           <t>2-s2.0-84946490117</t>
         </is>
+      </c>
+      <c r="BT101" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU101" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="102">
@@ -23171,6 +23781,12 @@
           <t>2-s2.0-84941995671</t>
         </is>
       </c>
+      <c r="BT102" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU102" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -23394,6 +24010,12 @@
           <t>2-s2.0-84937974582</t>
         </is>
       </c>
+      <c r="BT103" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU103" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -23617,6 +24239,12 @@
           <t>2-s2.0-84930208135</t>
         </is>
       </c>
+      <c r="BT104" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU104" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -23848,6 +24476,12 @@
           <t>2-s2.0-84930221800</t>
         </is>
       </c>
+      <c r="BT105" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU105" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -24075,6 +24709,12 @@
           <t>2-s2.0-84930226800</t>
         </is>
       </c>
+      <c r="BT106" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU106" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -24308,6 +24948,12 @@
           <t>2-s2.0-84925499087</t>
         </is>
       </c>
+      <c r="BT107" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU107" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -24533,6 +25179,12 @@
           <t>2-s2.0-84921700383</t>
         </is>
       </c>
+      <c r="BT108" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU108" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -24750,6 +25402,12 @@
           <t>2-s2.0-84921700573</t>
         </is>
       </c>
+      <c r="BT109" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU109" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -24970,6 +25628,12 @@
         <is>
           <t>2-s2.0-84946491619</t>
         </is>
+      </c>
+      <c r="BT110" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU110" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="111">
@@ -25180,6 +25844,12 @@
           <t>2-s2.0-84946494489</t>
         </is>
       </c>
+      <c r="BT111" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU111" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -25397,6 +26067,12 @@
           <t>2-s2.0-84946401554</t>
         </is>
       </c>
+      <c r="BT112" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU112" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -25617,6 +26293,12 @@
         <is>
           <t>2-s2.0-84946430627</t>
         </is>
+      </c>
+      <c r="BT113" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU113" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="114">
@@ -25837,6 +26519,12 @@
           <t>2-s2.0-85028209379</t>
         </is>
       </c>
+      <c r="BT114" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU114" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -26063,6 +26751,12 @@
         <is>
           <t>2-s2.0-84941998215</t>
         </is>
+      </c>
+      <c r="BT115" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU115" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="116">
@@ -26279,6 +26973,12 @@
           <t>2-s2.0-84937977011</t>
         </is>
       </c>
+      <c r="BT116" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU116" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -26494,6 +27194,12 @@
           <t>2-s2.0-84937972205</t>
         </is>
       </c>
+      <c r="BT117" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU117" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -26705,6 +27411,12 @@
           <t>2-s2.0-84937968850</t>
         </is>
       </c>
+      <c r="BT118" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU118" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -26928,6 +27640,12 @@
           <t>2-s2.0-84929961831</t>
         </is>
       </c>
+      <c r="BT119" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU119" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -27143,6 +27861,12 @@
           <t>2-s2.0-84929947685</t>
         </is>
       </c>
+      <c r="BT120" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU120" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -27368,6 +28092,12 @@
           <t>2-s2.0-84925292149</t>
         </is>
       </c>
+      <c r="BT121" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU121" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -27581,6 +28311,12 @@
           <t>2-s2.0-84925289090</t>
         </is>
       </c>
+      <c r="BT122" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU122" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -27810,6 +28546,12 @@
           <t>2-s2.0-84946499274</t>
         </is>
       </c>
+      <c r="BT123" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU123" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -28030,6 +28772,12 @@
         <is>
           <t>2-s2.0-84946488903</t>
         </is>
+      </c>
+      <c r="BT124" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU124" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="125">
@@ -28240,6 +28988,12 @@
           <t>2-s2.0-84946496046</t>
         </is>
       </c>
+      <c r="BT125" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU125" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -28456,6 +29210,12 @@
         <is>
           <t>2-s2.0-84946494198</t>
         </is>
+      </c>
+      <c r="BT126" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU126" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="127">
@@ -28658,6 +29418,12 @@
           <t>2-s2.0-84946409179</t>
         </is>
       </c>
+      <c r="BT127" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU127" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -28869,6 +29635,12 @@
           <t>2-s2.0-84941992824</t>
         </is>
       </c>
+      <c r="BT128" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU128" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -29080,6 +29852,12 @@
           <t>2-s2.0-84941997900</t>
         </is>
       </c>
+      <c r="BT129" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU129" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -29298,6 +30076,12 @@
         <is>
           <t>2-s2.0-84941995669</t>
         </is>
+      </c>
+      <c r="BT130" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU130" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="131">
@@ -29502,6 +30286,12 @@
           <t>2-s2.0-84941994835</t>
         </is>
       </c>
+      <c r="BT131" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU131" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -29716,6 +30506,12 @@
         <is>
           <t>2-s2.0-84937933056</t>
         </is>
+      </c>
+      <c r="BT132" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU132" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="133">
@@ -29928,6 +30724,12 @@
           <t>2-s2.0-84929959827</t>
         </is>
       </c>
+      <c r="BT133" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU133" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -30135,6 +30937,12 @@
           <t>2-s2.0-84937760665</t>
         </is>
       </c>
+      <c r="BT134" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU134" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -30364,6 +31172,12 @@
           <t>2-s2.0-84925289637</t>
         </is>
       </c>
+      <c r="BT135" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU135" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -30596,6 +31410,12 @@
         <is>
           <t>2-s2.0-84925291308</t>
         </is>
+      </c>
+      <c r="BT136" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU136" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="137">
@@ -30802,6 +31622,12 @@
           <t>2-s2.0-85050612461</t>
         </is>
       </c>
+      <c r="BT137" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU137" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -31015,6 +31841,12 @@
           <t>2-s2.0-84921700022</t>
         </is>
       </c>
+      <c r="BT138" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU138" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
